--- a/Heating Wires/calcul.xlsx
+++ b/Heating Wires/calcul.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\Heating Wires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D71417-E172-4EE0-91A1-EA43599C01A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21B3B6-23FD-418C-AD2F-DCB1C2ADAF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
